--- a/Results/Warfarin_2000_IPW.xlsx
+++ b/Results/Warfarin_2000_IPW.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sina/Documents/GitHub/prescriptive-trees/Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32DCFB0B-E07A-4741-B03E-78E03F3AC32F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E7AC7E-4E11-2347-98A6-87E782B8F5B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="2300" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Warfarin_2000_IPW" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Warfarin_2000_IPW!$A$1:$R$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="24">
   <si>
     <t>FlowOPT</t>
   </si>
@@ -38,9 +41,6 @@
   </si>
   <si>
     <t>data_train_enc_5</t>
-  </si>
-  <si>
-    <t>1FlowOPT</t>
   </si>
   <si>
     <t>nrow</t>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -934,75 +934,77 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI58"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>16</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>18</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>20</v>
       </c>
-      <c r="R1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1170,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1226,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1282,7 +1284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -1730,7 +1732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -1838,62 +1840,8 @@
       <c r="Q16">
         <v>15.674769489999999</v>
       </c>
-      <c r="R16" t="s">
-        <v>6</v>
-      </c>
-      <c r="S16" t="s">
-        <v>1</v>
-      </c>
-      <c r="T16">
-        <v>0.33</v>
-      </c>
-      <c r="U16">
-        <v>2000</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>100</v>
-      </c>
-      <c r="X16">
-        <v>3600</v>
-      </c>
-      <c r="Y16">
-        <v>2</v>
-      </c>
-      <c r="Z16">
-        <v>1277.7777779999999</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0.123609304</v>
-      </c>
-      <c r="AC16">
-        <v>735</v>
-      </c>
-      <c r="AD16">
-        <v>63.25</v>
-      </c>
-      <c r="AE16">
-        <v>32.4</v>
-      </c>
-      <c r="AF16">
-        <v>888</v>
-      </c>
-      <c r="AG16">
-        <v>62.782900249999997</v>
-      </c>
-      <c r="AH16">
-        <v>33.822296729999998</v>
-      </c>
-      <c r="AI16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -1907,7 +1855,7 @@
         <v>2000</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17">
         <v>100</v>
@@ -1919,37 +1867,37 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1700.912165</v>
+        <v>1277.7777779999999</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.6969771389999999</v>
+        <v>0.123609304</v>
       </c>
       <c r="L17">
-        <v>305</v>
+        <v>735</v>
       </c>
       <c r="M17">
-        <v>84.75</v>
+        <v>63.25</v>
       </c>
       <c r="N17">
-        <v>31.85</v>
+        <v>32.4</v>
       </c>
       <c r="O17">
-        <v>374</v>
+        <v>888</v>
       </c>
       <c r="P17">
-        <v>84.325230509999997</v>
+        <v>62.782900249999997</v>
       </c>
       <c r="Q17">
-        <v>33.528918689999998</v>
+        <v>33.822296729999998</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +1911,7 @@
         <v>2000</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>100</v>
@@ -1975,42 +1923,42 @@
         <v>2</v>
       </c>
       <c r="I18">
-        <v>1750.1965869999999</v>
+        <v>1700.912165</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.621956829999998</v>
+        <v>2.6969771389999999</v>
       </c>
       <c r="L18">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="M18">
-        <v>86.55</v>
+        <v>84.75</v>
       </c>
       <c r="N18">
-        <v>32.450000000000003</v>
+        <v>31.85</v>
       </c>
       <c r="O18">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="P18">
-        <v>85.163453480000001</v>
+        <v>84.325230509999997</v>
       </c>
       <c r="Q18">
-        <v>33.235540649999997</v>
+        <v>33.528918689999998</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0.33</v>
@@ -2019,7 +1967,7 @@
         <v>2000</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>100</v>
@@ -2031,37 +1979,37 @@
         <v>2</v>
       </c>
       <c r="I19">
-        <v>1291.2579619999999</v>
+        <v>1750.1965869999999</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.15976500499999999</v>
+        <v>16.621956829999998</v>
       </c>
       <c r="L19">
-        <v>730</v>
+        <v>269</v>
       </c>
       <c r="M19">
-        <v>63.5</v>
+        <v>86.55</v>
       </c>
       <c r="N19">
-        <v>33.700000000000003</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="O19">
-        <v>893</v>
+        <v>354</v>
       </c>
       <c r="P19">
-        <v>62.573344509999998</v>
+        <v>85.163453480000001</v>
       </c>
       <c r="Q19">
-        <v>32.732606869999998</v>
+        <v>33.235540649999997</v>
       </c>
       <c r="R19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2023,7 @@
         <v>2000</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
         <v>100</v>
@@ -2087,37 +2035,37 @@
         <v>2</v>
       </c>
       <c r="I20">
-        <v>1688.256079</v>
+        <v>1291.2579619999999</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.1013889309999998</v>
+        <v>0.15976500499999999</v>
       </c>
       <c r="L20">
-        <v>299</v>
+        <v>730</v>
       </c>
       <c r="M20">
-        <v>85.05</v>
+        <v>63.5</v>
       </c>
       <c r="N20">
-        <v>31.55</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="O20">
-        <v>380</v>
+        <v>893</v>
       </c>
       <c r="P20">
-        <v>84.073763619999994</v>
+        <v>62.573344509999998</v>
       </c>
       <c r="Q20">
-        <v>33.780385580000001</v>
+        <v>32.732606869999998</v>
       </c>
       <c r="R20">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -2131,7 +2079,7 @@
         <v>2000</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>100</v>
@@ -2143,42 +2091,42 @@
         <v>2</v>
       </c>
       <c r="I21">
-        <v>1724.2170020000001</v>
+        <v>1688.256079</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>15.72904205</v>
+        <v>2.1013889309999998</v>
       </c>
       <c r="L21">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="M21">
-        <v>86.15</v>
+        <v>85.05</v>
       </c>
       <c r="N21">
-        <v>32.35</v>
+        <v>31.55</v>
       </c>
       <c r="O21">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="P21">
-        <v>84.618608550000005</v>
+        <v>84.073763619999994</v>
       </c>
       <c r="Q21">
-        <v>33.948030180000003</v>
+        <v>33.780385580000001</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>0.33</v>
@@ -2187,7 +2135,7 @@
         <v>2000</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>100</v>
@@ -2199,37 +2147,37 @@
         <v>2</v>
       </c>
       <c r="I22">
-        <v>1270.7446150000001</v>
+        <v>1724.2170020000001</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.16650390600000001</v>
+        <v>15.72904205</v>
       </c>
       <c r="L22">
-        <v>762</v>
+        <v>277</v>
       </c>
       <c r="M22">
-        <v>61.9</v>
+        <v>86.15</v>
       </c>
       <c r="N22">
-        <v>34</v>
+        <v>32.35</v>
       </c>
       <c r="O22">
-        <v>861</v>
+        <v>367</v>
       </c>
       <c r="P22">
-        <v>63.914501260000002</v>
+        <v>84.618608550000005</v>
       </c>
       <c r="Q22">
-        <v>32.481139980000002</v>
+        <v>33.948030180000003</v>
       </c>
       <c r="R22">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -2243,7 +2191,7 @@
         <v>2000</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
         <v>100</v>
@@ -2255,37 +2203,37 @@
         <v>2</v>
       </c>
       <c r="I23">
-        <v>1722.4855150000001</v>
+        <v>1270.7446150000001</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.4971277710000002</v>
+        <v>0.16650390600000001</v>
       </c>
       <c r="L23">
-        <v>314</v>
+        <v>762</v>
       </c>
       <c r="M23">
-        <v>84.3</v>
+        <v>61.9</v>
       </c>
       <c r="N23">
-        <v>33.25</v>
+        <v>34</v>
       </c>
       <c r="O23">
-        <v>365</v>
+        <v>861</v>
       </c>
       <c r="P23">
-        <v>84.702430849999999</v>
+        <v>63.914501260000002</v>
       </c>
       <c r="Q23">
-        <v>32.355406539999997</v>
+        <v>32.481139980000002</v>
       </c>
       <c r="R23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -2299,7 +2247,7 @@
         <v>2000</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
         <v>100</v>
@@ -2311,42 +2259,42 @@
         <v>2</v>
       </c>
       <c r="I24">
-        <v>1754.9584620000001</v>
+        <v>1722.4855150000001</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>18.965891119999998</v>
+        <v>2.4971277710000002</v>
       </c>
       <c r="L24">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="M24">
-        <v>85</v>
+        <v>84.3</v>
       </c>
       <c r="N24">
-        <v>33.75</v>
+        <v>33.25</v>
       </c>
       <c r="O24">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="P24">
-        <v>85.498742669999999</v>
+        <v>84.702430849999999</v>
       </c>
       <c r="Q24">
-        <v>32.439228829999998</v>
+        <v>32.355406539999997</v>
       </c>
       <c r="R24">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>0.33</v>
@@ -2355,7 +2303,7 @@
         <v>2000</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>100</v>
@@ -2367,37 +2315,37 @@
         <v>2</v>
       </c>
       <c r="I25">
-        <v>1323.430513</v>
+        <v>1754.9584620000001</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.139075279</v>
+        <v>18.965891119999998</v>
       </c>
       <c r="L25">
-        <v>730</v>
+        <v>300</v>
       </c>
       <c r="M25">
-        <v>63.5</v>
+        <v>85</v>
       </c>
       <c r="N25">
-        <v>33.4</v>
+        <v>33.75</v>
       </c>
       <c r="O25">
-        <v>893</v>
+        <v>346</v>
       </c>
       <c r="P25">
-        <v>62.573344509999998</v>
+        <v>85.498742669999999</v>
       </c>
       <c r="Q25">
-        <v>32.984073760000001</v>
+        <v>32.439228829999998</v>
       </c>
       <c r="R25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -2411,7 +2359,7 @@
         <v>2000</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -2423,37 +2371,37 @@
         <v>2</v>
       </c>
       <c r="I26">
-        <v>1759.8053130000001</v>
+        <v>1323.430513</v>
       </c>
       <c r="J26">
-        <v>1.0707340000000001E-3</v>
+        <v>0</v>
       </c>
       <c r="K26">
-        <v>2.6986579900000001</v>
+        <v>0.139075279</v>
       </c>
       <c r="L26">
-        <v>309</v>
+        <v>730</v>
       </c>
       <c r="M26">
-        <v>84.55</v>
+        <v>63.5</v>
       </c>
       <c r="N26">
-        <v>32.9</v>
+        <v>33.4</v>
       </c>
       <c r="O26">
-        <v>370</v>
+        <v>893</v>
       </c>
       <c r="P26">
-        <v>84.492875100000006</v>
+        <v>62.573344509999998</v>
       </c>
       <c r="Q26">
-        <v>32.648784579999997</v>
+        <v>32.984073760000001</v>
       </c>
       <c r="R26">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -2467,7 +2415,7 @@
         <v>2000</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>100</v>
@@ -2479,42 +2427,42 @@
         <v>2</v>
       </c>
       <c r="I27">
-        <v>1799.208294</v>
+        <v>1759.8053130000001</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1.0707340000000001E-3</v>
       </c>
       <c r="K27">
-        <v>20.671842099999999</v>
+        <v>2.6986579900000001</v>
       </c>
       <c r="L27">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="M27">
-        <v>86.1</v>
+        <v>84.55</v>
       </c>
       <c r="N27">
-        <v>33.25</v>
+        <v>32.9</v>
       </c>
       <c r="O27">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="P27">
-        <v>84.870075439999994</v>
+        <v>84.492875100000006</v>
       </c>
       <c r="Q27">
-        <v>32.774518020000002</v>
+        <v>32.648784579999997</v>
       </c>
       <c r="R27">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <v>0.33</v>
@@ -2523,7 +2471,7 @@
         <v>2000</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F28">
         <v>100</v>
@@ -2535,37 +2483,37 @@
         <v>2</v>
       </c>
       <c r="I28">
-        <v>1274.4798940000001</v>
+        <v>1799.208294</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28">
-        <v>0.131617069</v>
+        <v>20.671842099999999</v>
       </c>
       <c r="L28">
-        <v>753</v>
+        <v>278</v>
       </c>
       <c r="M28">
-        <v>62.35</v>
+        <v>86.1</v>
       </c>
       <c r="N28">
-        <v>33.200000000000003</v>
+        <v>33.25</v>
       </c>
       <c r="O28">
-        <v>870</v>
+        <v>361</v>
       </c>
       <c r="P28">
-        <v>63.53730092</v>
+        <v>84.870075439999994</v>
       </c>
       <c r="Q28">
-        <v>33.151718359999997</v>
+        <v>32.774518020000002</v>
       </c>
       <c r="R28">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -2579,7 +2527,7 @@
         <v>2000</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
         <v>100</v>
@@ -2591,37 +2539,37 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <v>1650.839172</v>
+        <v>1274.4798940000001</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>3.0953810210000001</v>
+        <v>0.131617069</v>
       </c>
       <c r="L29">
-        <v>318</v>
+        <v>753</v>
       </c>
       <c r="M29">
-        <v>84.1</v>
+        <v>62.35</v>
       </c>
       <c r="N29">
-        <v>31.7</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="O29">
-        <v>361</v>
+        <v>870</v>
       </c>
       <c r="P29">
-        <v>84.870075439999994</v>
+        <v>63.53730092</v>
       </c>
       <c r="Q29">
-        <v>33.654652140000003</v>
+        <v>33.151718359999997</v>
       </c>
       <c r="R29">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -2635,7 +2583,7 @@
         <v>2000</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30">
         <v>100</v>
@@ -2647,144 +2595,93 @@
         <v>2</v>
       </c>
       <c r="I30">
+        <v>1650.839172</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>3.0953810210000001</v>
+      </c>
+      <c r="L30">
+        <v>318</v>
+      </c>
+      <c r="M30">
+        <v>84.1</v>
+      </c>
+      <c r="N30">
+        <v>31.7</v>
+      </c>
+      <c r="O30">
+        <v>361</v>
+      </c>
+      <c r="P30">
+        <v>84.870075439999994</v>
+      </c>
+      <c r="Q30">
+        <v>33.654652140000003</v>
+      </c>
+      <c r="R30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>0.33</v>
+      </c>
+      <c r="D31">
+        <v>2000</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31">
+        <v>3600</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
         <v>1677.8263529999999</v>
       </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>23.904605870000001</v>
       </c>
-      <c r="L30">
+      <c r="L31">
         <v>304</v>
       </c>
-      <c r="M30">
+      <c r="M31">
         <v>84.8</v>
       </c>
-      <c r="N30">
+      <c r="N31">
         <v>32.25</v>
       </c>
-      <c r="O30">
+      <c r="O31">
         <v>342</v>
       </c>
-      <c r="P30">
+      <c r="P31">
         <v>85.666387259999993</v>
       </c>
-      <c r="Q30">
+      <c r="Q31">
         <v>33.69656329</v>
       </c>
-      <c r="R30" t="s">
-        <v>6</v>
-      </c>
-      <c r="S30" t="s">
-        <v>1</v>
-      </c>
-      <c r="T30">
-        <v>0.6</v>
-      </c>
-      <c r="U30">
-        <v>2000</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>100</v>
-      </c>
-      <c r="X30">
-        <v>3600</v>
-      </c>
-      <c r="Y30">
-        <v>2</v>
-      </c>
-      <c r="Z30">
-        <v>1372.1609739999999</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0.12831163400000001</v>
-      </c>
-      <c r="AC30">
-        <v>735</v>
-      </c>
-      <c r="AD30">
-        <v>63.25</v>
-      </c>
-      <c r="AE30">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="AF30">
-        <v>888</v>
-      </c>
-      <c r="AG30">
-        <v>62.782900249999997</v>
-      </c>
-      <c r="AH30">
-        <v>39.689857500000002</v>
-      </c>
-      <c r="AI30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>0.6</v>
-      </c>
-      <c r="D31">
-        <v>2000</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>100</v>
-      </c>
-      <c r="G31">
-        <v>3600</v>
-      </c>
-      <c r="H31">
-        <v>2</v>
-      </c>
-      <c r="I31">
-        <v>1693.8540949999999</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>3.2649729249999999</v>
-      </c>
-      <c r="L31">
-        <v>305</v>
-      </c>
-      <c r="M31">
-        <v>84.75</v>
-      </c>
-      <c r="N31">
-        <v>67</v>
-      </c>
-      <c r="O31">
-        <v>374</v>
-      </c>
-      <c r="P31">
-        <v>84.325230509999997</v>
-      </c>
-      <c r="Q31">
-        <v>68.398994130000005</v>
-      </c>
       <c r="R31">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>0</v>
       </c>
@@ -2798,7 +2695,7 @@
         <v>2000</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>100</v>
@@ -2810,42 +2707,42 @@
         <v>2</v>
       </c>
       <c r="I32">
-        <v>1910.8563979999999</v>
+        <v>1372.1609739999999</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32">
-        <v>13.582487110000001</v>
+        <v>0.12831163400000001</v>
       </c>
       <c r="L32">
-        <v>338</v>
+        <v>735</v>
       </c>
       <c r="M32">
-        <v>83.1</v>
+        <v>63.25</v>
       </c>
       <c r="N32">
-        <v>65.25</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="O32">
-        <v>406</v>
+        <v>888</v>
       </c>
       <c r="P32">
-        <v>82.984073760000001</v>
+        <v>62.782900249999997</v>
       </c>
       <c r="Q32">
-        <v>65.758591789999997</v>
+        <v>39.689857500000002</v>
       </c>
       <c r="R32">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>0.6</v>
@@ -2854,7 +2751,7 @@
         <v>2000</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
         <v>100</v>
@@ -2866,42 +2763,42 @@
         <v>2</v>
       </c>
       <c r="I33">
-        <v>1357.086051</v>
+        <v>1693.8540949999999</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33">
-        <v>0.14029002199999999</v>
+        <v>3.2649729249999999</v>
       </c>
       <c r="L33">
-        <v>730</v>
+        <v>305</v>
       </c>
       <c r="M33">
-        <v>63.5</v>
+        <v>84.75</v>
       </c>
       <c r="N33">
-        <v>39.1</v>
+        <v>67</v>
       </c>
       <c r="O33">
-        <v>893</v>
+        <v>374</v>
       </c>
       <c r="P33">
-        <v>62.573344509999998</v>
+        <v>84.325230509999997</v>
       </c>
       <c r="Q33">
-        <v>40.695725060000001</v>
+        <v>68.398994130000005</v>
       </c>
       <c r="R33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>0.6</v>
@@ -2910,7 +2807,7 @@
         <v>2000</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>100</v>
@@ -2922,37 +2819,37 @@
         <v>2</v>
       </c>
       <c r="I34">
-        <v>1690.363914</v>
+        <v>1910.8563979999999</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34">
-        <v>3.2675158980000001</v>
+        <v>13.582487110000001</v>
       </c>
       <c r="L34">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="M34">
-        <v>85.05</v>
+        <v>83.1</v>
       </c>
       <c r="N34">
-        <v>67.95</v>
+        <v>65.25</v>
       </c>
       <c r="O34">
-        <v>380</v>
+        <v>406</v>
       </c>
       <c r="P34">
-        <v>84.073763619999994</v>
+        <v>82.984073760000001</v>
       </c>
       <c r="Q34">
-        <v>67.602682310000006</v>
+        <v>65.758591789999997</v>
       </c>
       <c r="R34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +2863,7 @@
         <v>2000</v>
       </c>
       <c r="E35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F35">
         <v>100</v>
@@ -2978,42 +2875,42 @@
         <v>2</v>
       </c>
       <c r="I35">
-        <v>1876.8135830000001</v>
+        <v>1357.086051</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35">
-        <v>16.050369020000002</v>
+        <v>0.14029002199999999</v>
       </c>
       <c r="L35">
-        <v>294</v>
+        <v>730</v>
       </c>
       <c r="M35">
-        <v>85.3</v>
+        <v>63.5</v>
       </c>
       <c r="N35">
-        <v>68.7</v>
+        <v>39.1</v>
       </c>
       <c r="O35">
-        <v>377</v>
+        <v>893</v>
       </c>
       <c r="P35">
-        <v>84.199497070000007</v>
+        <v>62.573344509999998</v>
       </c>
       <c r="Q35">
-        <v>68.357082980000001</v>
+        <v>40.695725060000001</v>
       </c>
       <c r="R35">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
         <v>0.6</v>
@@ -3022,7 +2919,7 @@
         <v>2000</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>100</v>
@@ -3034,42 +2931,42 @@
         <v>2</v>
       </c>
       <c r="I36">
-        <v>1415.1415400000001</v>
+        <v>1690.363914</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36">
-        <v>0.14392328300000001</v>
+        <v>3.2675158980000001</v>
       </c>
       <c r="L36">
-        <v>762</v>
+        <v>299</v>
       </c>
       <c r="M36">
-        <v>61.9</v>
+        <v>85.05</v>
       </c>
       <c r="N36">
-        <v>40.450000000000003</v>
+        <v>67.95</v>
       </c>
       <c r="O36">
-        <v>861</v>
+        <v>380</v>
       </c>
       <c r="P36">
-        <v>63.914501260000002</v>
+        <v>84.073763619999994</v>
       </c>
       <c r="Q36">
-        <v>39.564124059999997</v>
+        <v>67.602682310000006</v>
       </c>
       <c r="R36">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37">
         <v>0.6</v>
@@ -3078,7 +2975,7 @@
         <v>2000</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>100</v>
@@ -3090,37 +2987,37 @@
         <v>2</v>
       </c>
       <c r="I37">
-        <v>1741.6828170000001</v>
+        <v>1876.8135830000001</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37">
-        <v>2.994369984</v>
+        <v>16.050369020000002</v>
       </c>
       <c r="L37">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="M37">
-        <v>80.7</v>
+        <v>85.3</v>
       </c>
       <c r="N37">
-        <v>61.2</v>
+        <v>68.7</v>
       </c>
       <c r="O37">
-        <v>479</v>
+        <v>377</v>
       </c>
       <c r="P37">
-        <v>79.924559930000001</v>
+        <v>84.199497070000007</v>
       </c>
       <c r="Q37">
-        <v>57.124895219999999</v>
+        <v>68.357082980000001</v>
       </c>
       <c r="R37">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -3134,7 +3031,7 @@
         <v>2000</v>
       </c>
       <c r="E38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F38">
         <v>100</v>
@@ -3146,42 +3043,42 @@
         <v>2</v>
       </c>
       <c r="I38">
-        <v>2025.718895</v>
+        <v>1415.1415400000001</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>11.216243029999999</v>
+        <v>0.14392328300000001</v>
       </c>
       <c r="L38">
-        <v>337</v>
+        <v>762</v>
       </c>
       <c r="M38">
-        <v>83.15</v>
+        <v>61.9</v>
       </c>
       <c r="N38">
-        <v>67.099999999999994</v>
+        <v>40.450000000000003</v>
       </c>
       <c r="O38">
-        <v>407</v>
+        <v>861</v>
       </c>
       <c r="P38">
-        <v>82.942162620000005</v>
+        <v>63.914501260000002</v>
       </c>
       <c r="Q38">
-        <v>64.207879300000002</v>
+        <v>39.564124059999997</v>
       </c>
       <c r="R38">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>0.6</v>
@@ -3190,7 +3087,7 @@
         <v>2000</v>
       </c>
       <c r="E39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F39">
         <v>100</v>
@@ -3202,42 +3099,42 @@
         <v>2</v>
       </c>
       <c r="I39">
-        <v>1398.801117</v>
+        <v>1741.6828170000001</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0.14593505900000001</v>
+        <v>2.994369984</v>
       </c>
       <c r="L39">
-        <v>730</v>
+        <v>386</v>
       </c>
       <c r="M39">
-        <v>63.5</v>
+        <v>80.7</v>
       </c>
       <c r="N39">
-        <v>38.549999999999997</v>
+        <v>61.2</v>
       </c>
       <c r="O39">
-        <v>893</v>
+        <v>479</v>
       </c>
       <c r="P39">
-        <v>62.573344509999998</v>
+        <v>79.924559930000001</v>
       </c>
       <c r="Q39">
-        <v>41.156747690000003</v>
+        <v>57.124895219999999</v>
       </c>
       <c r="R39">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>0.6</v>
@@ -3246,7 +3143,7 @@
         <v>2000</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>100</v>
@@ -3258,37 +3155,37 @@
         <v>2</v>
       </c>
       <c r="I40">
-        <v>1691.416663</v>
+        <v>2025.718895</v>
       </c>
       <c r="J40">
         <v>0</v>
       </c>
       <c r="K40">
-        <v>3.3008229729999998</v>
+        <v>11.216243029999999</v>
       </c>
       <c r="L40">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="M40">
-        <v>84.55</v>
+        <v>83.15</v>
       </c>
       <c r="N40">
-        <v>66.25</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="O40">
-        <v>370</v>
+        <v>407</v>
       </c>
       <c r="P40">
-        <v>84.492875100000006</v>
+        <v>82.942162620000005</v>
       </c>
       <c r="Q40">
-        <v>69.027661359999996</v>
+        <v>64.207879300000002</v>
       </c>
       <c r="R40">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -3302,7 +3199,7 @@
         <v>2000</v>
       </c>
       <c r="E41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41">
         <v>100</v>
@@ -3314,42 +3211,42 @@
         <v>2</v>
       </c>
       <c r="I41">
-        <v>1908.8675800000001</v>
+        <v>1398.801117</v>
       </c>
       <c r="J41">
         <v>0</v>
       </c>
       <c r="K41">
-        <v>16.795801879999999</v>
+        <v>0.14593505900000001</v>
       </c>
       <c r="L41">
-        <v>340</v>
+        <v>730</v>
       </c>
       <c r="M41">
-        <v>83</v>
+        <v>63.5</v>
       </c>
       <c r="N41">
-        <v>63.75</v>
+        <v>38.549999999999997</v>
       </c>
       <c r="O41">
-        <v>404</v>
+        <v>893</v>
       </c>
       <c r="P41">
-        <v>83.067896059999995</v>
+        <v>62.573344509999998</v>
       </c>
       <c r="Q41">
-        <v>67.015926239999999</v>
+        <v>41.156747690000003</v>
       </c>
       <c r="R41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>0.6</v>
@@ -3358,7 +3255,7 @@
         <v>2000</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F42">
         <v>100</v>
@@ -3370,42 +3267,42 @@
         <v>2</v>
       </c>
       <c r="I42">
-        <v>1392.016376</v>
+        <v>1691.416663</v>
       </c>
       <c r="J42">
         <v>0</v>
       </c>
       <c r="K42">
-        <v>0.14585018199999999</v>
+        <v>3.3008229729999998</v>
       </c>
       <c r="L42">
-        <v>753</v>
+        <v>309</v>
       </c>
       <c r="M42">
-        <v>62.35</v>
+        <v>84.55</v>
       </c>
       <c r="N42">
-        <v>40.9</v>
+        <v>66.25</v>
       </c>
       <c r="O42">
-        <v>870</v>
+        <v>370</v>
       </c>
       <c r="P42">
-        <v>63.53730092</v>
+        <v>84.492875100000006</v>
       </c>
       <c r="Q42">
-        <v>39.186923720000003</v>
+        <v>69.027661359999996</v>
       </c>
       <c r="R42">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>0.6</v>
@@ -3414,7 +3311,7 @@
         <v>2000</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>100</v>
@@ -3426,37 +3323,37 @@
         <v>2</v>
       </c>
       <c r="I43">
-        <v>1697.3540969999999</v>
+        <v>1908.8675800000001</v>
       </c>
       <c r="J43">
         <v>0</v>
       </c>
       <c r="K43">
-        <v>3.2523908619999999</v>
+        <v>16.795801879999999</v>
       </c>
       <c r="L43">
-        <v>396</v>
+        <v>340</v>
       </c>
       <c r="M43">
-        <v>80.2</v>
+        <v>83</v>
       </c>
       <c r="N43">
-        <v>59.8</v>
+        <v>63.75</v>
       </c>
       <c r="O43">
-        <v>469</v>
+        <v>404</v>
       </c>
       <c r="P43">
-        <v>80.343671420000007</v>
+        <v>83.067896059999995</v>
       </c>
       <c r="Q43">
-        <v>58.29840738</v>
+        <v>67.015926239999999</v>
       </c>
       <c r="R43">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>0</v>
       </c>
@@ -3470,7 +3367,7 @@
         <v>2000</v>
       </c>
       <c r="E44">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F44">
         <v>100</v>
@@ -3482,205 +3379,154 @@
         <v>2</v>
       </c>
       <c r="I44">
+        <v>1392.016376</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0.14585018199999999</v>
+      </c>
+      <c r="L44">
+        <v>753</v>
+      </c>
+      <c r="M44">
+        <v>62.35</v>
+      </c>
+      <c r="N44">
+        <v>40.9</v>
+      </c>
+      <c r="O44">
+        <v>870</v>
+      </c>
+      <c r="P44">
+        <v>63.53730092</v>
+      </c>
+      <c r="Q44">
+        <v>39.186923720000003</v>
+      </c>
+      <c r="R44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>0.6</v>
+      </c>
+      <c r="D45">
+        <v>2000</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>100</v>
+      </c>
+      <c r="G45">
+        <v>3600</v>
+      </c>
+      <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
+        <v>1697.3540969999999</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>3.2523908619999999</v>
+      </c>
+      <c r="L45">
+        <v>396</v>
+      </c>
+      <c r="M45">
+        <v>80.2</v>
+      </c>
+      <c r="N45">
+        <v>59.8</v>
+      </c>
+      <c r="O45">
+        <v>469</v>
+      </c>
+      <c r="P45">
+        <v>80.343671420000007</v>
+      </c>
+      <c r="Q45">
+        <v>58.29840738</v>
+      </c>
+      <c r="R45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>0.6</v>
+      </c>
+      <c r="D46">
+        <v>2000</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>100</v>
+      </c>
+      <c r="G46">
+        <v>3600</v>
+      </c>
+      <c r="H46">
+        <v>2</v>
+      </c>
+      <c r="I46">
         <v>1992.7146519999999</v>
       </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>13.96787977</v>
       </c>
-      <c r="L44">
+      <c r="L46">
         <v>336</v>
       </c>
-      <c r="M44">
+      <c r="M46">
         <v>83.2</v>
       </c>
-      <c r="N44">
+      <c r="N46">
         <v>66.349999999999994</v>
       </c>
-      <c r="O44">
+      <c r="O46">
         <v>408</v>
       </c>
-      <c r="P44">
+      <c r="P46">
         <v>82.900251470000001</v>
       </c>
-      <c r="Q44">
+      <c r="Q46">
         <v>64.836546519999999</v>
       </c>
-      <c r="R44" t="s">
-        <v>6</v>
-      </c>
-      <c r="S44" t="s">
-        <v>1</v>
-      </c>
-      <c r="T44">
-        <v>0.85</v>
-      </c>
-      <c r="U44">
-        <v>2000</v>
-      </c>
-      <c r="V44">
-        <v>0</v>
-      </c>
-      <c r="W44">
-        <v>100</v>
-      </c>
-      <c r="X44">
-        <v>3600</v>
-      </c>
-      <c r="Y44">
-        <v>2</v>
-      </c>
-      <c r="Z44">
-        <v>1983.255791</v>
-      </c>
-      <c r="AA44">
-        <v>0</v>
-      </c>
-      <c r="AB44">
-        <v>0.133347034</v>
-      </c>
-      <c r="AC44">
-        <v>735</v>
-      </c>
-      <c r="AD44">
-        <v>63.25</v>
-      </c>
-      <c r="AE44">
-        <v>52.4</v>
-      </c>
-      <c r="AF44">
-        <v>888</v>
-      </c>
-      <c r="AG44">
-        <v>62.782900249999997</v>
-      </c>
-      <c r="AH44">
-        <v>51.844090530000003</v>
-      </c>
-      <c r="AI44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>0.85</v>
-      </c>
-      <c r="D45">
-        <v>2000</v>
-      </c>
-      <c r="E45">
-        <v>1</v>
-      </c>
-      <c r="F45">
-        <v>100</v>
-      </c>
-      <c r="G45">
-        <v>3600</v>
-      </c>
-      <c r="H45">
-        <v>2</v>
-      </c>
-      <c r="I45">
-        <v>2533.235365</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>5.5350131989999998</v>
-      </c>
-      <c r="L45">
-        <v>591</v>
-      </c>
-      <c r="M45">
-        <v>70.45</v>
-      </c>
-      <c r="N45">
-        <v>69.900000000000006</v>
-      </c>
-      <c r="O45">
-        <v>690</v>
-      </c>
-      <c r="P45">
-        <v>71.081307629999998</v>
-      </c>
-      <c r="Q45">
-        <v>70.578373850000006</v>
-      </c>
-      <c r="R45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>0.85</v>
-      </c>
-      <c r="D46">
-        <v>2000</v>
-      </c>
-      <c r="E46">
-        <v>2</v>
-      </c>
-      <c r="F46">
-        <v>100</v>
-      </c>
-      <c r="G46">
-        <v>3600</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
-      </c>
-      <c r="I46">
-        <v>2986.9837120000002</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>38.687330959999997</v>
-      </c>
-      <c r="L46">
-        <v>853</v>
-      </c>
-      <c r="M46">
-        <v>57.35</v>
-      </c>
-      <c r="N46">
-        <v>57.95</v>
-      </c>
-      <c r="O46">
-        <v>993</v>
-      </c>
-      <c r="P46">
-        <v>58.382229670000001</v>
-      </c>
-      <c r="Q46">
-        <v>58.633696559999997</v>
-      </c>
       <c r="R46">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>0.85</v>
@@ -3701,42 +3547,42 @@
         <v>2</v>
       </c>
       <c r="I47">
-        <v>1978.4803629999999</v>
+        <v>1983.255791</v>
       </c>
       <c r="J47">
         <v>0</v>
       </c>
       <c r="K47">
-        <v>0.142937183</v>
+        <v>0.133347034</v>
       </c>
       <c r="L47">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="M47">
-        <v>63.5</v>
+        <v>63.25</v>
       </c>
       <c r="N47">
-        <v>53</v>
+        <v>52.4</v>
       </c>
       <c r="O47">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="P47">
-        <v>62.573344509999998</v>
+        <v>62.782900249999997</v>
       </c>
       <c r="Q47">
-        <v>51.341156750000003</v>
+        <v>51.844090530000003</v>
       </c>
       <c r="R47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>0.85</v>
@@ -3757,31 +3603,31 @@
         <v>2</v>
       </c>
       <c r="I48">
-        <v>2477.323457</v>
+        <v>2533.235365</v>
       </c>
       <c r="J48">
         <v>0</v>
       </c>
       <c r="K48">
-        <v>5.1718971729999996</v>
+        <v>5.5350131989999998</v>
       </c>
       <c r="L48">
-        <v>379</v>
+        <v>591</v>
       </c>
       <c r="M48">
-        <v>81.05</v>
+        <v>70.45</v>
       </c>
       <c r="N48">
-        <v>76.25</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="O48">
-        <v>486</v>
+        <v>690</v>
       </c>
       <c r="P48">
-        <v>79.631181889999993</v>
+        <v>71.081307629999998</v>
       </c>
       <c r="Q48">
-        <v>74.056999160000004</v>
+        <v>70.578373850000006</v>
       </c>
       <c r="R48">
         <v>1</v>
@@ -3792,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="B49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>0.85</v>
@@ -3813,31 +3659,31 @@
         <v>2</v>
       </c>
       <c r="I49">
-        <v>3152.4606749999998</v>
+        <v>2986.9837120000002</v>
       </c>
       <c r="J49">
         <v>0</v>
       </c>
       <c r="K49">
-        <v>43.60571599</v>
+        <v>38.687330959999997</v>
       </c>
       <c r="L49">
-        <v>675</v>
+        <v>853</v>
       </c>
       <c r="M49">
-        <v>66.25</v>
+        <v>57.35</v>
       </c>
       <c r="N49">
-        <v>63.65</v>
+        <v>57.95</v>
       </c>
       <c r="O49">
-        <v>805</v>
+        <v>993</v>
       </c>
       <c r="P49">
-        <v>66.261525570000003</v>
+        <v>58.382229670000001</v>
       </c>
       <c r="Q49">
-        <v>63.704945520000003</v>
+        <v>58.633696559999997</v>
       </c>
       <c r="R49">
         <v>1</v>
@@ -3848,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50">
         <v>0.85</v>
@@ -3869,31 +3715,31 @@
         <v>2</v>
       </c>
       <c r="I50">
-        <v>1975.664927</v>
+        <v>1978.4803629999999</v>
       </c>
       <c r="J50">
         <v>0</v>
       </c>
       <c r="K50">
-        <v>0.13492012</v>
+        <v>0.142937183</v>
       </c>
       <c r="L50">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="M50">
-        <v>61.9</v>
+        <v>63.5</v>
       </c>
       <c r="N50">
-        <v>50.95</v>
+        <v>53</v>
       </c>
       <c r="O50">
-        <v>861</v>
+        <v>893</v>
       </c>
       <c r="P50">
-        <v>63.914501260000002</v>
+        <v>62.573344509999998</v>
       </c>
       <c r="Q50">
-        <v>53.05951383</v>
+        <v>51.341156750000003</v>
       </c>
       <c r="R50">
         <v>1</v>
@@ -3904,7 +3750,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C51">
         <v>0.85</v>
@@ -3925,31 +3771,31 @@
         <v>2</v>
       </c>
       <c r="I51">
-        <v>2523.0318309999998</v>
+        <v>2477.323457</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>4.4538700579999997</v>
+        <v>5.1718971729999996</v>
       </c>
       <c r="L51">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="M51">
-        <v>80.7</v>
+        <v>81.05</v>
       </c>
       <c r="N51">
-        <v>75.099999999999994</v>
+        <v>76.25</v>
       </c>
       <c r="O51">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="P51">
-        <v>79.924559930000001</v>
+        <v>79.631181889999993</v>
       </c>
       <c r="Q51">
-        <v>75.020955569999998</v>
+        <v>74.056999160000004</v>
       </c>
       <c r="R51">
         <v>1</v>
@@ -3960,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C52">
         <v>0.85</v>
@@ -3981,31 +3827,31 @@
         <v>2</v>
       </c>
       <c r="I52">
-        <v>3060.0334189999999</v>
+        <v>3152.4606749999998</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>52.650861020000001</v>
+        <v>43.60571599</v>
       </c>
       <c r="L52">
-        <v>775</v>
+        <v>675</v>
       </c>
       <c r="M52">
-        <v>61.25</v>
+        <v>66.25</v>
       </c>
       <c r="N52">
-        <v>61.7</v>
+        <v>63.65</v>
       </c>
       <c r="O52">
-        <v>913</v>
+        <v>805</v>
       </c>
       <c r="P52">
-        <v>61.735121540000002</v>
+        <v>66.261525570000003</v>
       </c>
       <c r="Q52">
-        <v>64.585079629999996</v>
+        <v>63.704945520000003</v>
       </c>
       <c r="R52">
         <v>1</v>
@@ -4016,7 +3862,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53">
         <v>0.85</v>
@@ -4037,31 +3883,31 @@
         <v>2</v>
       </c>
       <c r="I53">
-        <v>1986.0696270000001</v>
+        <v>1975.664927</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>0.142222881</v>
+        <v>0.13492012</v>
       </c>
       <c r="L53">
-        <v>730</v>
+        <v>762</v>
       </c>
       <c r="M53">
-        <v>63.5</v>
+        <v>61.9</v>
       </c>
       <c r="N53">
-        <v>53.4</v>
+        <v>50.95</v>
       </c>
       <c r="O53">
-        <v>893</v>
+        <v>861</v>
       </c>
       <c r="P53">
-        <v>62.573344509999998</v>
+        <v>63.914501260000002</v>
       </c>
       <c r="Q53">
-        <v>51.005867559999999</v>
+        <v>53.05951383</v>
       </c>
       <c r="R53">
         <v>1</v>
@@ -4072,7 +3918,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54">
         <v>0.85</v>
@@ -4093,31 +3939,31 @@
         <v>2</v>
       </c>
       <c r="I54">
-        <v>2614.6702679999999</v>
+        <v>2523.0318309999998</v>
       </c>
       <c r="J54">
         <v>0</v>
       </c>
       <c r="K54">
-        <v>5.6099591259999997</v>
+        <v>4.4538700579999997</v>
       </c>
       <c r="L54">
-        <v>562</v>
+        <v>386</v>
       </c>
       <c r="M54">
-        <v>71.900000000000006</v>
+        <v>80.7</v>
       </c>
       <c r="N54">
-        <v>72.55</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="O54">
-        <v>719</v>
+        <v>479</v>
       </c>
       <c r="P54">
-        <v>69.86588433</v>
+        <v>79.924559930000001</v>
       </c>
       <c r="Q54">
-        <v>68.357082980000001</v>
+        <v>75.020955569999998</v>
       </c>
       <c r="R54">
         <v>1</v>
@@ -4128,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C55">
         <v>0.85</v>
@@ -4149,31 +3995,31 @@
         <v>2</v>
       </c>
       <c r="I55">
-        <v>3066.0894600000001</v>
+        <v>3060.0334189999999</v>
       </c>
       <c r="J55">
         <v>0</v>
       </c>
       <c r="K55">
-        <v>48.615957979999997</v>
+        <v>52.650861020000001</v>
       </c>
       <c r="L55">
-        <v>836</v>
+        <v>775</v>
       </c>
       <c r="M55">
-        <v>58.2</v>
+        <v>61.25</v>
       </c>
       <c r="N55">
-        <v>59.6</v>
+        <v>61.7</v>
       </c>
       <c r="O55">
-        <v>1010</v>
+        <v>913</v>
       </c>
       <c r="P55">
-        <v>57.669740150000003</v>
+        <v>61.735121540000002</v>
       </c>
       <c r="Q55">
-        <v>57.250628669999998</v>
+        <v>64.585079629999996</v>
       </c>
       <c r="R55">
         <v>1</v>
@@ -4184,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C56">
         <v>0.85</v>
@@ -4205,31 +4051,31 @@
         <v>2</v>
       </c>
       <c r="I56">
-        <v>1979.550201</v>
+        <v>1986.0696270000001</v>
       </c>
       <c r="J56">
         <v>0</v>
       </c>
       <c r="K56">
-        <v>0.12985205699999999</v>
+        <v>0.142222881</v>
       </c>
       <c r="L56">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="M56">
-        <v>62.35</v>
+        <v>63.5</v>
       </c>
       <c r="N56">
-        <v>52.6</v>
+        <v>53.4</v>
       </c>
       <c r="O56">
-        <v>870</v>
+        <v>893</v>
       </c>
       <c r="P56">
-        <v>63.53730092</v>
+        <v>62.573344509999998</v>
       </c>
       <c r="Q56">
-        <v>51.67644593</v>
+        <v>51.005867559999999</v>
       </c>
       <c r="R56">
         <v>1</v>
@@ -4240,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57">
         <v>0.85</v>
@@ -4261,31 +4107,31 @@
         <v>2</v>
       </c>
       <c r="I57">
-        <v>2557.033938</v>
+        <v>2614.6702679999999</v>
       </c>
       <c r="J57">
         <v>0</v>
       </c>
       <c r="K57">
-        <v>6.6229031090000001</v>
+        <v>5.6099591259999997</v>
       </c>
       <c r="L57">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="M57">
-        <v>71.55</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="N57">
-        <v>70.55</v>
+        <v>72.55</v>
       </c>
       <c r="O57">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="P57">
-        <v>70.15926236</v>
+        <v>69.86588433</v>
       </c>
       <c r="Q57">
-        <v>70.033528919999995</v>
+        <v>68.357082980000001</v>
       </c>
       <c r="R57">
         <v>1</v>
@@ -4296,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C58">
         <v>0.85</v>
@@ -4317,37 +4163,206 @@
         <v>2</v>
       </c>
       <c r="I58">
+        <v>3066.0894600000001</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>48.615957979999997</v>
+      </c>
+      <c r="L58">
+        <v>836</v>
+      </c>
+      <c r="M58">
+        <v>58.2</v>
+      </c>
+      <c r="N58">
+        <v>59.6</v>
+      </c>
+      <c r="O58">
+        <v>1010</v>
+      </c>
+      <c r="P58">
+        <v>57.669740150000003</v>
+      </c>
+      <c r="Q58">
+        <v>57.250628669999998</v>
+      </c>
+      <c r="R58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" t="s">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>0.85</v>
+      </c>
+      <c r="D59">
+        <v>2000</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>3600</v>
+      </c>
+      <c r="H59">
+        <v>2</v>
+      </c>
+      <c r="I59">
+        <v>1979.550201</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.12985205699999999</v>
+      </c>
+      <c r="L59">
+        <v>753</v>
+      </c>
+      <c r="M59">
+        <v>62.35</v>
+      </c>
+      <c r="N59">
+        <v>52.6</v>
+      </c>
+      <c r="O59">
+        <v>870</v>
+      </c>
+      <c r="P59">
+        <v>63.53730092</v>
+      </c>
+      <c r="Q59">
+        <v>51.67644593</v>
+      </c>
+      <c r="R59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60" t="s">
+        <v>5</v>
+      </c>
+      <c r="C60">
+        <v>0.85</v>
+      </c>
+      <c r="D60">
+        <v>2000</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>100</v>
+      </c>
+      <c r="G60">
+        <v>3600</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>2557.033938</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>6.6229031090000001</v>
+      </c>
+      <c r="L60">
+        <v>569</v>
+      </c>
+      <c r="M60">
+        <v>71.55</v>
+      </c>
+      <c r="N60">
+        <v>70.55</v>
+      </c>
+      <c r="O60">
+        <v>712</v>
+      </c>
+      <c r="P60">
+        <v>70.15926236</v>
+      </c>
+      <c r="Q60">
+        <v>70.033528919999995</v>
+      </c>
+      <c r="R60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61">
+        <v>0.85</v>
+      </c>
+      <c r="D61">
+        <v>2000</v>
+      </c>
+      <c r="E61">
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <v>100</v>
+      </c>
+      <c r="G61">
+        <v>3600</v>
+      </c>
+      <c r="H61">
+        <v>2</v>
+      </c>
+      <c r="I61">
         <v>3160.2324699999999</v>
       </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
         <v>58.03138113</v>
       </c>
-      <c r="L58">
+      <c r="L61">
         <v>659</v>
       </c>
-      <c r="M58">
+      <c r="M61">
         <v>67.05</v>
       </c>
-      <c r="N58">
+      <c r="N61">
         <v>64.2</v>
       </c>
-      <c r="O58">
+      <c r="O61">
         <v>821</v>
       </c>
-      <c r="P58">
+      <c r="P61">
         <v>65.590947189999994</v>
       </c>
-      <c r="Q58">
+      <c r="Q61">
         <v>63.24392288</v>
       </c>
-      <c r="R58">
+      <c r="R61">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:R1" xr:uid="{5378C3E0-9EE5-384D-AC13-9A656AB43578}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>